--- a/NLP Papers.xlsx
+++ b/NLP Papers.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70465592-EE81-43C2-8E5E-BE249F057C22}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA777F84-4551-44EA-A45B-530A10D8196D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information Extraction" sheetId="1" r:id="rId1"/>
-    <sheet name="Document Classification" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Document Classification" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="85">
   <si>
     <t>Contextual String Embeddings for Sequence Labeling</t>
   </si>
@@ -159,9 +160,6 @@
     <t>Automatic Attribution of Quoted Speech in Literary Narrative</t>
   </si>
   <si>
-    <t>David K. Elson and Kathleen R. McKeown好多对话提取的paper都引用了它，应该是该领域的经典。</t>
-  </si>
-  <si>
     <t>Whose Line Is It? – Quote Attribution through Recurrent Neural Networks</t>
   </si>
   <si>
@@ -239,12 +237,58 @@
   <si>
     <t>用正则通过引号来提取quote（并没有具体写，就一句话），然后用ML的方式找到speaker</t>
   </si>
+  <si>
+    <t>David K. Elson and Kathleen R. McKeown好多对话提取的paper都引用了它。</t>
+  </si>
+  <si>
+    <t>SVM-Rank</t>
+  </si>
+  <si>
+    <t>类似[14][19]</t>
+  </si>
+  <si>
+    <t>Quootstrap: Scalable Unsupervised Extraction of QuotationSpeaker Pairs from Large News Corpora via Bootstrapping</t>
+  </si>
+  <si>
+    <t>https://github.com/epfl-dlab/quootstrap</t>
+  </si>
+  <si>
+    <t>News. 说是unsupervised的方法，但是看起来像是pattern based</t>
+  </si>
+  <si>
+    <t>Model Architectures for Quotation Detection</t>
+  </si>
+  <si>
+    <t>Quotation Detection</t>
+  </si>
+  <si>
+    <t>Quotetation Detection; Quote Attribution</t>
+  </si>
+  <si>
+    <t>SciLens: Evaluating the Quality of Scientific News Articles
+Using Social Media and Scientific Literature Indicators</t>
+  </si>
+  <si>
+    <t>Quote Extraction在science news上的运用</t>
+  </si>
+  <si>
+    <t>Automatic detection of quotations in multilingual news</t>
+  </si>
+  <si>
+    <t>Rule-based. High precision low recall</t>
+  </si>
+  <si>
+    <t>A Lexicon of French Quotation Verbs for Automatic Quotation Extraction</t>
+  </si>
+  <si>
+    <t>Direct quotation</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,6 +305,13 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -349,7 +400,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -367,6 +418,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -680,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK468"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1400,14 +1457,14 @@
         <v>43</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -1446,22 +1503,22 @@
         <v>2016</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
@@ -1499,17 +1556,17 @@
         <v>2017</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -1548,10 +1605,10 @@
         <v>2013</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -1595,17 +1652,17 @@
         <v>2009</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -1644,17 +1701,19 @@
         <v>2013</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+      <c r="G20" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -1693,17 +1752,17 @@
         <v>2008</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -1742,21 +1801,21 @@
         <v>2013</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
@@ -1795,23 +1854,23 @@
         <v>2012</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
@@ -1850,17 +1909,19 @@
         <v>2017</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
-      <c r="E24" s="5"/>
+      <c r="E24" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -1892,16 +1953,28 @@
       <c r="AK24" s="5"/>
     </row>
     <row r="25" spans="1:37" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
+      <c r="I25" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>74</v>
+      </c>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
@@ -1930,11 +2003,19 @@
       <c r="AJ25" s="5"/>
       <c r="AK25" s="5"/>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
+    <row r="26" spans="1:37" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5">
+        <v>2016</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
@@ -1969,16 +2050,24 @@
       <c r="AJ26" s="5"/>
       <c r="AK26" s="5"/>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
+    <row r="27" spans="1:37" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5">
+        <v>2019</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
+      <c r="I27" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
@@ -2008,16 +2097,26 @@
       <c r="AJ27" s="5"/>
       <c r="AK27" s="5"/>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
+    <row r="28" spans="1:37" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5">
+        <v>2007</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
+      <c r="I28" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
@@ -2047,16 +2146,26 @@
       <c r="AJ28" s="5"/>
       <c r="AK28" s="5"/>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
+    <row r="29" spans="1:37" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5">
+        <v>2010</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
+      <c r="I29" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
@@ -2086,7 +2195,7 @@
       <c r="AJ29" s="5"/>
       <c r="AK29" s="5"/>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -2125,7 +2234,7 @@
       <c r="AJ30" s="5"/>
       <c r="AK30" s="5"/>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -2164,7 +2273,7 @@
       <c r="AJ31" s="5"/>
       <c r="AK31" s="5"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -2203,7 +2312,7 @@
       <c r="AJ32" s="5"/>
       <c r="AK32" s="5"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -2242,7 +2351,7 @@
       <c r="AJ33" s="5"/>
       <c r="AK33" s="5"/>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -2281,7 +2390,7 @@
       <c r="AJ34" s="5"/>
       <c r="AK34" s="5"/>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -2320,7 +2429,7 @@
       <c r="AJ35" s="5"/>
       <c r="AK35" s="5"/>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -2359,7 +2468,7 @@
       <c r="AJ36" s="5"/>
       <c r="AK36" s="5"/>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -2398,7 +2507,7 @@
       <c r="AJ37" s="5"/>
       <c r="AK37" s="5"/>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -19210,13 +19319,35 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J25" r:id="rId2" xr:uid="{4D17FA21-C093-4747-8EC9-76BF5E961018}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43435B51-012A-4D55-A520-6260268EC3D8}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" ht="48" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
